--- a/Example/NBP_GEO6.xlsx
+++ b/Example/NBP_GEO6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28418E43-FC64-408B-8446-871D244861FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A2F64-304E-490A-8674-6324D795291C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{34282A98-6A9A-4409-9434-E8B99E93568C}"/>
   </bookViews>
@@ -2221,21 +2221,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2246,8 +2239,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2569,21 +2577,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADDD7E8-93B1-4891-A805-5B974A060B9F}">
   <dimension ref="B1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="19" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2591,7 +2599,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2599,25 +2607,25 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1"/>
@@ -2625,3297 +2633,3297 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="8" t="s">
         <v>156</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="8" t="s">
         <v>163</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="11"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>176</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="11"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="11"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="8" t="s">
         <v>198</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="11"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E76" s="11"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="8" t="s">
         <v>214</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E78" s="11"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="8" t="s">
         <v>220</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E83" s="11"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E84" s="11"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="11"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E88" s="11"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E91" s="11"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="11"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E93" s="11"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E94" s="11"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="11"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E96" s="11"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E97" s="11"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E99" s="11"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E100" s="11"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E101" s="11"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="11"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E104" s="11"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="8" t="s">
         <v>292</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="8" t="s">
         <v>296</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E107" s="11"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E108" s="11"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E109" s="11"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="8" t="s">
         <v>309</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E111" s="11"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E112" s="11"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E113" s="11"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E114" s="11"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E115" s="11"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E116" s="11"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E118" s="11"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E120" s="11"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E121" s="11"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E122" s="11"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E123" s="11"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="E124" s="11"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E125" s="11"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E127" s="11"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E128" s="11"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E129" s="11"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E130" s="11"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E131" s="11"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="E132" s="11"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E133" s="11"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E134" s="11"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E135" s="11"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E136" s="11"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="8" t="s">
         <v>385</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E138" s="11"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E139" s="11"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E140" s="11"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="E141" s="11"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E142" s="11"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E143" s="11"/>
+      <c r="E143" s="8"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E144" s="11"/>
+      <c r="E144" s="8"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="E145" s="11"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E146" s="11"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="E147" s="11"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="E148" s="11"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="E149" s="11"/>
+      <c r="E149" s="8"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E150" s="11"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="E151" s="11"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E152" s="11"/>
+      <c r="E152" s="8"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="E153" s="11"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E154" s="11"/>
+      <c r="E154" s="8"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E155" s="11"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E156" s="11"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E157" s="11"/>
+      <c r="E157" s="8"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E158" s="11"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E159" s="11"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E160" s="11"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="E161" s="11"/>
+      <c r="E161" s="8"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E162" s="11"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="8" t="s">
         <v>456</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="8" t="s">
         <v>460</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E165" s="11"/>
+      <c r="E165" s="8"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E166" s="11"/>
+      <c r="E166" s="8"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E167" s="11"/>
+      <c r="E167" s="8"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E168" s="11"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="8" t="s">
         <v>473</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E170" s="11"/>
+      <c r="E170" s="8"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E171" s="11"/>
+      <c r="E171" s="8"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="E172" s="11"/>
+      <c r="E172" s="8"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="E173" s="11"/>
+      <c r="E173" s="8"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="E174" s="11"/>
+      <c r="E174" s="8"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E175" s="11"/>
+      <c r="E175" s="8"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E176" s="11"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="E177" s="11"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="D178" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="E178" s="11"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="8" t="s">
         <v>500</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E180" s="11"/>
+      <c r="E180" s="8"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="E181" s="11"/>
+      <c r="E181" s="8"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E182" s="11"/>
+      <c r="E182" s="8"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E183" s="11"/>
+      <c r="E183" s="8"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E184" s="11"/>
+      <c r="E184" s="8"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E185" s="11"/>
+      <c r="E185" s="8"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="E186" s="11"/>
+      <c r="E186" s="8"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="E187" s="11"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="E188" s="11"/>
+      <c r="E188" s="8"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E189" s="11"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="E190" s="11"/>
+      <c r="E190" s="8"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="E191" s="11"/>
+      <c r="E191" s="8"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E192" s="11"/>
+      <c r="E192" s="8"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E193" s="11"/>
+      <c r="E193" s="8"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="E194" s="11"/>
+      <c r="E194" s="8"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E195" s="14"/>
+      <c r="E195" s="11"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="E196" s="11"/>
+      <c r="E196" s="8"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="E197" s="11"/>
+      <c r="E197" s="8"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E198" s="11"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="E199" s="11"/>
+      <c r="E199" s="8"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E200" s="11"/>
+      <c r="E200" s="8"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E201" s="11"/>
+      <c r="E201" s="8"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="E202" s="11"/>
+      <c r="E202" s="8"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E203" s="11"/>
+      <c r="E203" s="8"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="E204" s="11"/>
+      <c r="E204" s="8"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E205" s="11"/>
+      <c r="E205" s="8"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D206" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E206" s="11"/>
+      <c r="E206" s="8"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D207" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="E207" s="15"/>
+      <c r="E207" s="12"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D208" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="E208" s="11"/>
+      <c r="E208" s="8"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="E209" s="11"/>
+      <c r="E209" s="8"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D210" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="E210" s="11"/>
+      <c r="E210" s="8"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E211" s="11"/>
+      <c r="E211" s="8"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="E212" s="11"/>
+      <c r="E212" s="8"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="E213" s="11"/>
+      <c r="E213" s="8"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="E214" s="11"/>
+      <c r="E214" s="8"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D215" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E215" s="11"/>
+      <c r="E215" s="8"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E216" s="11"/>
+      <c r="E216" s="8"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E217" s="11"/>
+      <c r="E217" s="8"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D218" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="E218" s="11"/>
+      <c r="E218" s="8"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E219" s="11"/>
+      <c r="E219" s="8"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D220" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E220" s="11"/>
+      <c r="E220" s="8"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E221" s="11"/>
+      <c r="E221" s="8"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="D222" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="E222" s="11"/>
+      <c r="E222" s="8"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="E223" s="8" t="s">
         <v>621</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="D224" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E224" s="11"/>
+      <c r="E224" s="8"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="D225" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E225" s="11"/>
+      <c r="E225" s="8"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="D226" s="10" t="s">
+      <c r="D226" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E226" s="11"/>
+      <c r="E226" s="8"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="D227" s="10" t="s">
+      <c r="D227" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E227" s="8" t="s">
         <v>633</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D228" s="10" t="s">
+      <c r="D228" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E228" s="11"/>
+      <c r="E228" s="8"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="D229" s="10" t="s">
+      <c r="D229" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="E229" s="11"/>
+      <c r="E229" s="8"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D230" s="10" t="s">
+      <c r="D230" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="E230" s="11"/>
+      <c r="E230" s="8"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D231" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E231" s="11"/>
+      <c r="E231" s="8"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="D232" s="10" t="s">
+      <c r="D232" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E232" s="11"/>
+      <c r="E232" s="8"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="D233" s="10" t="s">
+      <c r="D233" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="E233" s="11"/>
+      <c r="E233" s="8"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D234" s="10" t="s">
+      <c r="D234" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="E234" s="11"/>
+      <c r="E234" s="8"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="D235" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="E235" s="11"/>
+      <c r="E235" s="8"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D236" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="E236" s="11"/>
+      <c r="E236" s="8"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="7" t="s">
         <v>661</v>
       </c>
       <c r="E237" s="1"/>
@@ -5923,111 +5931,111 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D238" s="10" t="s">
+      <c r="D238" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="E238" s="11"/>
+      <c r="E238" s="8"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="D239" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E239" s="11"/>
+      <c r="E239" s="8"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="D240" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E240" s="11"/>
+      <c r="E240" s="8"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="D241" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="E241" s="11"/>
+      <c r="E241" s="8"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D242" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="E242" s="11"/>
+      <c r="E242" s="8"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D243" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="E243" s="11"/>
+      <c r="E243" s="8"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D244" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="E244" s="8" t="s">
         <v>680</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="16"/>
+      <c r="B245" s="18"/>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="1"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>

--- a/Example/NBP_GEO6.xlsx
+++ b/Example/NBP_GEO6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A2F64-304E-490A-8674-6324D795291C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E300F-6B52-4803-858F-0B99B31B716C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{34282A98-6A9A-4409-9434-E8B99E93568C}"/>
   </bookViews>
   <sheets>
     <sheet name="GEO6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="677">
   <si>
     <t xml:space="preserve">GEO6 </t>
   </si>
@@ -105,9 +105,6 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>Angola łącznie z Kabinda</t>
-  </si>
-  <si>
     <t>AQ</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Samoa Amerykańskie</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
@@ -159,18 +153,12 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Azerbejdżan</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Bośnia i Hercegowina</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Bułgaria</t>
-  </si>
-  <si>
     <t>BH</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>Belarus</t>
   </si>
   <si>
-    <t>Białoruś</t>
-  </si>
-  <si>
     <t>BZ</t>
   </si>
   <si>
@@ -333,18 +315,12 @@
     <t>Cocos (Keeling) Islands (the)</t>
   </si>
   <si>
-    <t>Wyspy Kokosowe (Keelinga)</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
     <t>Congo (the Democratic Republic of the)</t>
   </si>
   <si>
-    <t>Kongo, Republika Demokratyczna</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
@@ -378,9 +354,6 @@
     <t>Côte d'Ivoire</t>
   </si>
   <si>
-    <t>Wybrzeże Kości Słoniowej</t>
-  </si>
-  <si>
     <t>CK</t>
   </si>
   <si>
@@ -447,9 +420,6 @@
     <t>Cabo Verde</t>
   </si>
   <si>
-    <t>Wyspy Zielonego Przylądka</t>
-  </si>
-  <si>
     <t>CW</t>
   </si>
   <si>
@@ -463,9 +433,6 @@
   </si>
   <si>
     <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Wyspa Bożego Narodzenia</t>
   </si>
   <si>
     <t>CY</t>
@@ -505,9 +472,6 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>Dżibuti</t>
-  </si>
-  <si>
     <t>DK</t>
   </si>
   <si>
@@ -551,9 +515,6 @@
   </si>
   <si>
     <t>Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ekwador </t>
   </si>
   <si>
     <t>łącznie z wyspami Galapagos</t>
@@ -632,9 +593,6 @@
     <t>Fiji</t>
   </si>
   <si>
-    <t>Republika Fidżi</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -759,9 +717,6 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Gwinea Równikowa</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
@@ -777,9 +732,6 @@
     <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
-    <t>Georgia Południowa i Sandwich Południowy</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
@@ -858,9 +810,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Węgry</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -915,9 +864,6 @@
     <t>British Indian Ocean Territory (the)</t>
   </si>
   <si>
-    <t xml:space="preserve">Brytyjskie Terytorium Oceanu Indyjskiego </t>
-  </si>
-  <si>
     <t>łącznie z wyspami Czagos</t>
   </si>
   <si>
@@ -954,9 +900,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Włochy</t>
-  </si>
-  <si>
     <t>Excluding San Marino (SM) and the Holy See (VA)</t>
   </si>
   <si>
@@ -966,9 +909,6 @@
     <t>Jersey</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey </t>
-  </si>
-  <si>
     <t>JM</t>
   </si>
   <si>
@@ -1020,9 +960,6 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Kambodża (Kampucza)</t>
-  </si>
-  <si>
     <t>KI</t>
   </si>
   <si>
@@ -1053,18 +990,12 @@
     <t>Korea (the Democratic People's Republic of)</t>
   </si>
   <si>
-    <t>Koreańska Republika Ludowo-Demokratyczna (Korea Północna)</t>
-  </si>
-  <si>
     <t>KR</t>
   </si>
   <si>
     <t>Korea (the Republic of)</t>
   </si>
   <si>
-    <t>Republika Korei (Korea Południowa)</t>
-  </si>
-  <si>
     <t>KW</t>
   </si>
   <si>
@@ -1164,9 +1095,6 @@
     <t>Latvia</t>
   </si>
   <si>
-    <t>Łotwa</t>
-  </si>
-  <si>
     <t>LY</t>
   </si>
   <si>
@@ -1194,18 +1122,12 @@
     <t>Moldova (the Republic of)</t>
   </si>
   <si>
-    <t>Mołdowa</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Czarnogóra</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
@@ -1269,9 +1191,6 @@
     <t>Northern Mariana Islands (the)</t>
   </si>
   <si>
-    <t>Mariany Północne</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -1444,9 +1363,6 @@
   </si>
   <si>
     <t>Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman </t>
   </si>
   <si>
     <t>łącznie z wyspami Kuria Muria</t>
@@ -1648,18 +1564,12 @@
     <t>Saint Helena, Ascension and Tristan da Cunha</t>
   </si>
   <si>
-    <t>Wyspa Świętej Heleny</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>Słowenia</t>
-  </si>
-  <si>
     <t>SJ</t>
   </si>
   <si>
@@ -1675,9 +1585,6 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Słowacja</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
@@ -1726,9 +1633,6 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Wyspy Świętego Tomasza i Książęca</t>
-  </si>
-  <si>
     <t>SV</t>
   </si>
   <si>
@@ -1789,9 +1693,6 @@
     <t>French Southern Territories (the)</t>
   </si>
   <si>
-    <t>Francuskie Terytoria Południowe</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
@@ -1813,9 +1714,6 @@
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Tadżykistan</t>
-  </si>
-  <si>
     <t>TK</t>
   </si>
   <si>
@@ -1918,18 +1816,12 @@
     <t>United States Minor Outlying Islands (the)</t>
   </si>
   <si>
-    <t>Terytoria Zamorskie Stanów Zjednoczonych</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>United States of America (the)</t>
   </si>
   <si>
-    <t>Stany Zjednoczone Ameryki Północnej łącznie z Portoryko i Navassa</t>
-  </si>
-  <si>
     <t>Including Puerto Rico (PR) and Navassa</t>
   </si>
   <si>
@@ -1990,9 +1882,6 @@
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>Wyspy Dziewicze Stanów Zjednoczonych</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
@@ -2038,18 +1927,12 @@
     <t>Yemen</t>
   </si>
   <si>
-    <t>Jemen łącznie z wyspami Perim, Kamaran, Socotra</t>
-  </si>
-  <si>
     <t>ZA</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Republika Południowej Afryki</t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
@@ -2068,10 +1951,115 @@
     <t>Extra UE not allocated</t>
   </si>
   <si>
-    <t>Pozostałe kraje</t>
-  </si>
-  <si>
     <t>Terytoria nie ujęte w wykazie krajów w ramach Geo 6 (np. Kosowo, Tymczasowa Misja Administracyjna ONZ w Kosowie). Każdy przypadek powinien podlegać konsultacji.</t>
+  </si>
+  <si>
+    <t>Bosnia i Hercegowina</t>
+  </si>
+  <si>
+    <t>Azerbejdzan</t>
+  </si>
+  <si>
+    <t>Bialorus</t>
+  </si>
+  <si>
+    <t>Samoa Amerykanskie</t>
+  </si>
+  <si>
+    <t>Demokratyczna Republika Konga</t>
+  </si>
+  <si>
+    <t>Wyspy Kokosowe</t>
+  </si>
+  <si>
+    <t>Wybrzeze Kosci Sloniowej</t>
+  </si>
+  <si>
+    <t>Wyspy Zielonego Przyladka</t>
+  </si>
+  <si>
+    <t>Wyspa Bozego Narodzenia</t>
+  </si>
+  <si>
+    <t>Dzibuti</t>
+  </si>
+  <si>
+    <t>Republika Fidzi</t>
+  </si>
+  <si>
+    <t>Gwinea Rownikowa</t>
+  </si>
+  <si>
+    <t>Georgia Poludniowa i Sandwich Poludniowy</t>
+  </si>
+  <si>
+    <t>Brytyjskie Terytorium Oceanu Indyjskiego</t>
+  </si>
+  <si>
+    <t>Kambodza (Kampucza)</t>
+  </si>
+  <si>
+    <t>Koreanska Republika Ludowo-Demokratyczna (Korea Polnocna)</t>
+  </si>
+  <si>
+    <t>Korea Poludniowa</t>
+  </si>
+  <si>
+    <t>Czarnogora</t>
+  </si>
+  <si>
+    <t>Moldowa</t>
+  </si>
+  <si>
+    <t>Mariany Polnocne</t>
+  </si>
+  <si>
+    <t>Wyspa Swietej Heleny</t>
+  </si>
+  <si>
+    <t>Wyspy Swietego Tomasza i Ksiazeca</t>
+  </si>
+  <si>
+    <t>Tadzykistan</t>
+  </si>
+  <si>
+    <t>Terytoria Zamorskie Stanow Zjednoczonych</t>
+  </si>
+  <si>
+    <t>Stany Zjednoczone Ameryki Polnocnej lacznie z Portoryko i Navassa</t>
+  </si>
+  <si>
+    <t>Jemen lacznie z wyspami Perim, Kamaran, Socotra</t>
+  </si>
+  <si>
+    <t>Wyspy Dziewicze Stanow Zjednoczonych</t>
+  </si>
+  <si>
+    <t>Wegry</t>
+  </si>
+  <si>
+    <t>Wlochy</t>
+  </si>
+  <si>
+    <t>Lotwa</t>
+  </si>
+  <si>
+    <t>Slowacja</t>
+  </si>
+  <si>
+    <t>Slowenia</t>
+  </si>
+  <si>
+    <t>Francuskie Terytoria Poludniowe</t>
+  </si>
+  <si>
+    <t>Pozostale kraje</t>
+  </si>
+  <si>
+    <t>Ekwador</t>
+  </si>
+  <si>
+    <t>Republika Poludniowej Afryki</t>
   </si>
 </sst>
 </file>
@@ -2239,23 +2227,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2577,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADDD7E8-93B1-4891-A805-5B974A060B9F}">
   <dimension ref="B1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2585,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2599,7 +2593,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2607,11 +2601,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2619,7 +2613,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2633,7 +2627,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2647,7 +2641,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2663,7 +2657,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2677,7 +2671,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2691,7 +2685,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2705,7 +2699,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2719,7 +2713,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2733,3299 +2727,3299 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>644</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>36</v>
+      <c r="B16" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>38</v>
+      <c r="B17" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>40</v>
+      <c r="B18" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>42</v>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>642</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>45</v>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>47</v>
+        <v>641</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>48</v>
+      <c r="B21" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
-        <v>50</v>
+      <c r="B22" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>53</v>
+      <c r="B23" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>56</v>
+      <c r="B24" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
-        <v>58</v>
+      <c r="B25" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
-        <v>61</v>
+      <c r="B26" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>64</v>
+      <c r="B27" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>66</v>
+      <c r="B28" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>68</v>
+      <c r="B29" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
-        <v>71</v>
+      <c r="B30" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="17" t="s">
-        <v>73</v>
+      <c r="B31" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>76</v>
+      <c r="B32" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
-        <v>79</v>
+      <c r="B33" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
-        <v>82</v>
+      <c r="B34" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
-        <v>85</v>
+      <c r="B35" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
-        <v>87</v>
+      <c r="B36" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
-        <v>90</v>
+      <c r="B37" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
-        <v>92</v>
+      <c r="B38" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>94</v>
+        <v>643</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
-        <v>95</v>
+      <c r="B39" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
-        <v>97</v>
+      <c r="B40" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
-        <v>100</v>
+      <c r="B41" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>102</v>
+        <v>646</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
-        <v>103</v>
+      <c r="B42" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>105</v>
+        <v>645</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
-        <v>106</v>
+      <c r="B43" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
-        <v>109</v>
+      <c r="B44" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
-        <v>112</v>
+      <c r="B45" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
-        <v>115</v>
+      <c r="B46" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>117</v>
+        <v>647</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
-        <v>118</v>
+      <c r="B47" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>121</v>
+      <c r="B48" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>123</v>
+      <c r="B49" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>126</v>
+      <c r="B50" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="17" t="s">
-        <v>129</v>
+      <c r="B51" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>132</v>
+      <c r="B52" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="s">
-        <v>135</v>
+      <c r="B53" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="s">
-        <v>138</v>
+      <c r="B54" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>648</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>141</v>
+      <c r="B55" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="s">
-        <v>144</v>
+      <c r="B56" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>146</v>
+        <v>649</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
-        <v>147</v>
+      <c r="B57" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
-        <v>150</v>
+      <c r="B58" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>153</v>
+      <c r="B59" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>157</v>
+      <c r="B60" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>159</v>
+        <v>650</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="s">
-        <v>160</v>
+      <c r="B61" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
-        <v>164</v>
+      <c r="B62" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="s">
-        <v>167</v>
+      <c r="B63" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="17" t="s">
-        <v>170</v>
+      <c r="B64" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="17" t="s">
-        <v>173</v>
+      <c r="B65" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>175</v>
+        <v>675</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="17" t="s">
-        <v>177</v>
+      <c r="B66" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="17" t="s">
-        <v>179</v>
+      <c r="B67" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="17" t="s">
-        <v>182</v>
+      <c r="B68" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="17" t="s">
-        <v>185</v>
+      <c r="B69" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="17" t="s">
-        <v>188</v>
+      <c r="B70" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="17" t="s">
-        <v>192</v>
+      <c r="B71" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="17" t="s">
-        <v>195</v>
+      <c r="B72" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="17" t="s">
-        <v>199</v>
+      <c r="B73" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>201</v>
+        <v>651</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="17" t="s">
-        <v>202</v>
+      <c r="B74" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="17" t="s">
-        <v>205</v>
+      <c r="B75" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="17" t="s">
-        <v>208</v>
+      <c r="B76" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="17" t="s">
-        <v>211</v>
+      <c r="B77" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="17" t="s">
-        <v>215</v>
+      <c r="B78" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="17" t="s">
-        <v>217</v>
+      <c r="B79" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="17" t="s">
-        <v>221</v>
+      <c r="B80" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="17" t="s">
-        <v>223</v>
+      <c r="B81" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="17" t="s">
-        <v>226</v>
+      <c r="B82" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="17" t="s">
-        <v>228</v>
+      <c r="B83" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="17" t="s">
-        <v>230</v>
+      <c r="B84" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="17" t="s">
-        <v>232</v>
+      <c r="B85" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="17" t="s">
-        <v>235</v>
+      <c r="B86" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="17" t="s">
-        <v>238</v>
+      <c r="B87" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="17" t="s">
-        <v>241</v>
+      <c r="B88" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>243</v>
+        <v>652</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="17" t="s">
-        <v>244</v>
+      <c r="B89" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="17" t="s">
-        <v>247</v>
+      <c r="B90" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>249</v>
+        <v>653</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="17" t="s">
-        <v>250</v>
+      <c r="B91" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="17" t="s">
-        <v>253</v>
+      <c r="B92" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="17" t="s">
-        <v>255</v>
+      <c r="B93" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="17" t="s">
-        <v>258</v>
+      <c r="B94" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="17" t="s">
-        <v>261</v>
+      <c r="B95" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="17" t="s">
-        <v>264</v>
+      <c r="B96" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="17" t="s">
-        <v>267</v>
+      <c r="B97" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="17" t="s">
-        <v>269</v>
+      <c r="B98" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="17" t="s">
-        <v>272</v>
+      <c r="B99" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="17" t="s">
-        <v>274</v>
+      <c r="B100" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>276</v>
+        <v>668</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="17" t="s">
-        <v>277</v>
+      <c r="B101" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="17" t="s">
-        <v>280</v>
+      <c r="B102" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="17" t="s">
-        <v>283</v>
+      <c r="B103" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="17" t="s">
-        <v>286</v>
+      <c r="B104" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="17" t="s">
-        <v>289</v>
+      <c r="B105" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="17" t="s">
-        <v>293</v>
+      <c r="B106" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>295</v>
+        <v>654</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="17" t="s">
-        <v>297</v>
+      <c r="B107" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="17" t="s">
-        <v>300</v>
+      <c r="B108" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="17" t="s">
-        <v>303</v>
+      <c r="B109" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="17" t="s">
-        <v>306</v>
+      <c r="B110" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>308</v>
+        <v>669</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="17" t="s">
-        <v>310</v>
+      <c r="B111" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="17" t="s">
-        <v>313</v>
+      <c r="B112" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="17" t="s">
-        <v>316</v>
+      <c r="B113" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="17" t="s">
-        <v>319</v>
+      <c r="B114" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="17" t="s">
-        <v>322</v>
+      <c r="B115" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="17" t="s">
-        <v>325</v>
+      <c r="B116" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="17" t="s">
-        <v>328</v>
+      <c r="B117" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>330</v>
+        <v>655</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="17" t="s">
-        <v>331</v>
+      <c r="B118" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="17" t="s">
-        <v>333</v>
+      <c r="B119" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="17" t="s">
-        <v>336</v>
+      <c r="B120" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="17" t="s">
-        <v>339</v>
+      <c r="B121" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>341</v>
+        <v>656</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="17" t="s">
-        <v>342</v>
+      <c r="B122" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>344</v>
+        <v>657</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="17" t="s">
-        <v>345</v>
+      <c r="B123" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="17" t="s">
-        <v>348</v>
+      <c r="B124" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="17" t="s">
-        <v>351</v>
+      <c r="B125" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="17" t="s">
-        <v>354</v>
+      <c r="B126" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="17" t="s">
-        <v>357</v>
+      <c r="B127" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="17" t="s">
-        <v>360</v>
+      <c r="B128" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="17" t="s">
-        <v>362</v>
+      <c r="B129" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="17" t="s">
-        <v>364</v>
+      <c r="B130" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="17" t="s">
-        <v>366</v>
+      <c r="B131" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="17" t="s">
-        <v>368</v>
+      <c r="B132" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="17" t="s">
-        <v>370</v>
+      <c r="B133" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="17" t="s">
-        <v>373</v>
+      <c r="B134" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="17" t="s">
-        <v>376</v>
+      <c r="B135" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>378</v>
+        <v>670</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="17" t="s">
-        <v>379</v>
+      <c r="B136" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="17" t="s">
-        <v>382</v>
+      <c r="B137" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="17" t="s">
-        <v>386</v>
+      <c r="B138" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>388</v>
+        <v>659</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="17" t="s">
-        <v>389</v>
+      <c r="B139" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>391</v>
+        <v>658</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="17" t="s">
-        <v>392</v>
+      <c r="B140" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="17" t="s">
-        <v>395</v>
+      <c r="B141" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="17" t="s">
-        <v>398</v>
+      <c r="B142" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="17" t="s">
-        <v>401</v>
+      <c r="B143" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="17" t="s">
-        <v>403</v>
+      <c r="B144" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="17" t="s">
-        <v>406</v>
+      <c r="B145" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="17" t="s">
-        <v>408</v>
+      <c r="B146" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="17" t="s">
-        <v>411</v>
+      <c r="B147" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>413</v>
+        <v>660</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="17" t="s">
-        <v>414</v>
+      <c r="B148" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="17" t="s">
-        <v>417</v>
+      <c r="B149" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="17" t="s">
-        <v>419</v>
+      <c r="B150" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="17" t="s">
-        <v>421</v>
+      <c r="B151" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="17" t="s">
-        <v>423</v>
+      <c r="B152" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="17" t="s">
-        <v>426</v>
+      <c r="B153" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="17" t="s">
-        <v>428</v>
+      <c r="B154" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="17" t="s">
-        <v>431</v>
+      <c r="B155" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="17" t="s">
-        <v>434</v>
+      <c r="B156" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="20" t="s">
-        <v>437</v>
+      <c r="B157" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="17" t="s">
-        <v>439</v>
+      <c r="B158" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="17" t="s">
-        <v>442</v>
+      <c r="B159" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="17" t="s">
-        <v>445</v>
+      <c r="B160" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="17" t="s">
-        <v>448</v>
+      <c r="B161" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="17" t="s">
-        <v>450</v>
+      <c r="B162" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="17" t="s">
-        <v>453</v>
+      <c r="B163" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="17" t="s">
-        <v>457</v>
+      <c r="B164" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="17" t="s">
-        <v>461</v>
+      <c r="B165" s="16" t="s">
+        <v>434</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="17" t="s">
-        <v>463</v>
+      <c r="B166" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="17" t="s">
-        <v>465</v>
+      <c r="B167" s="16" t="s">
+        <v>438</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="17" t="s">
-        <v>467</v>
+      <c r="B168" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="17" t="s">
-        <v>470</v>
+      <c r="B169" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="17" t="s">
-        <v>474</v>
+      <c r="B170" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="17" t="s">
-        <v>476</v>
+      <c r="B171" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="17" t="s">
-        <v>478</v>
+      <c r="B172" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="17" t="s">
-        <v>481</v>
+      <c r="B173" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="17" t="s">
-        <v>484</v>
+      <c r="B174" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="17" t="s">
-        <v>487</v>
+      <c r="B175" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="17" t="s">
-        <v>489</v>
+      <c r="B176" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="17" t="s">
-        <v>492</v>
+      <c r="B177" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="17" t="s">
-        <v>494</v>
+      <c r="B178" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="17" t="s">
-        <v>497</v>
+      <c r="B179" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="17" t="s">
-        <v>501</v>
+      <c r="B180" s="16" t="s">
+        <v>473</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="17" t="s">
-        <v>503</v>
+      <c r="B181" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="17" t="s">
-        <v>506</v>
+      <c r="B182" s="16" t="s">
+        <v>478</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="17" t="s">
-        <v>509</v>
+      <c r="B183" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="17" t="s">
-        <v>512</v>
+      <c r="B184" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="17" t="s">
-        <v>514</v>
+      <c r="B185" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="17" t="s">
-        <v>517</v>
+      <c r="B186" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="17" t="s">
-        <v>519</v>
+      <c r="B187" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="17" t="s">
-        <v>522</v>
+      <c r="B188" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="17" t="s">
-        <v>525</v>
+      <c r="B189" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="17" t="s">
-        <v>528</v>
+      <c r="B190" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="17" t="s">
-        <v>531</v>
+      <c r="B191" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="17" t="s">
-        <v>534</v>
+      <c r="B192" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="17" t="s">
-        <v>537</v>
+      <c r="B193" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="17" t="s">
-        <v>540</v>
+      <c r="B194" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>542</v>
+        <v>672</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="17" t="s">
-        <v>543</v>
+      <c r="B195" s="16" t="s">
+        <v>513</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="17" t="s">
-        <v>546</v>
+      <c r="B196" s="16" t="s">
+        <v>516</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>548</v>
+        <v>671</v>
       </c>
       <c r="E196" s="8"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="17" t="s">
-        <v>549</v>
+      <c r="B197" s="16" t="s">
+        <v>518</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="17" t="s">
-        <v>551</v>
+      <c r="B198" s="16" t="s">
+        <v>520</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="E198" s="8"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="17" t="s">
-        <v>553</v>
+      <c r="B199" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="17" t="s">
-        <v>555</v>
+      <c r="B200" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="17" t="s">
-        <v>557</v>
+      <c r="B201" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="17" t="s">
-        <v>560</v>
+      <c r="B202" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="17" t="s">
-        <v>563</v>
+      <c r="B203" s="16" t="s">
+        <v>532</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>565</v>
+        <v>662</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="17" t="s">
-        <v>566</v>
+      <c r="B204" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="E204" s="8"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="17" t="s">
-        <v>569</v>
+      <c r="B205" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="E205" s="8"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="17" t="s">
-        <v>572</v>
+      <c r="B206" s="16" t="s">
+        <v>540</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="E206" s="8"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="17" t="s">
-        <v>575</v>
+      <c r="B207" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="17" t="s">
-        <v>578</v>
+      <c r="B208" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="17" t="s">
-        <v>581</v>
+      <c r="B209" s="16" t="s">
+        <v>549</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="17" t="s">
-        <v>584</v>
+      <c r="B210" s="16" t="s">
+        <v>552</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="17" t="s">
-        <v>587</v>
+      <c r="B211" s="16" t="s">
+        <v>554</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="17" t="s">
-        <v>589</v>
+      <c r="B212" s="16" t="s">
+        <v>556</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="17" t="s">
-        <v>592</v>
+      <c r="B213" s="16" t="s">
+        <v>559</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="17" t="s">
-        <v>595</v>
+      <c r="B214" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="17" t="s">
-        <v>597</v>
+      <c r="B215" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="17" t="s">
-        <v>600</v>
+      <c r="B216" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="17" t="s">
-        <v>602</v>
+      <c r="B217" s="16" t="s">
+        <v>568</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="17" t="s">
-        <v>605</v>
+      <c r="B218" s="16" t="s">
+        <v>571</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="17" t="s">
-        <v>607</v>
+      <c r="B219" s="16" t="s">
+        <v>573</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="17" t="s">
-        <v>610</v>
+      <c r="B220" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="E220" s="8"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="17" t="s">
-        <v>613</v>
+      <c r="B221" s="16" t="s">
+        <v>579</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="E221" s="8"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="17" t="s">
-        <v>615</v>
+      <c r="B222" s="16" t="s">
+        <v>581</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="E222" s="8"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="17" t="s">
-        <v>618</v>
+      <c r="B223" s="16" t="s">
+        <v>584</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="17" t="s">
-        <v>622</v>
+      <c r="B224" s="16" t="s">
+        <v>588</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="E224" s="8"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="17" t="s">
-        <v>625</v>
+      <c r="B225" s="16" t="s">
+        <v>591</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="E225" s="8"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="17" t="s">
-        <v>627</v>
+      <c r="B226" s="16" t="s">
+        <v>593</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="E226" s="8"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="17" t="s">
-        <v>630</v>
+      <c r="B227" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="17" t="s">
-        <v>634</v>
+      <c r="B228" s="16" t="s">
+        <v>598</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="E228" s="8"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="17" t="s">
-        <v>637</v>
+      <c r="B229" s="16" t="s">
+        <v>601</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="17" t="s">
-        <v>639</v>
+      <c r="B230" s="16" t="s">
+        <v>603</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="17" t="s">
-        <v>642</v>
+      <c r="B231" s="16" t="s">
+        <v>606</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="17" t="s">
-        <v>645</v>
+      <c r="B232" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="17" t="s">
-        <v>648</v>
+      <c r="B233" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="17" t="s">
-        <v>651</v>
+      <c r="B234" s="16" t="s">
+        <v>615</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E234" s="8"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="17" t="s">
-        <v>654</v>
+      <c r="B235" s="16" t="s">
+        <v>617</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="17" t="s">
-        <v>657</v>
+      <c r="B236" s="16" t="s">
+        <v>620</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="17" t="s">
-        <v>659</v>
+      <c r="B237" s="16" t="s">
+        <v>622</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="17" t="s">
-        <v>662</v>
+      <c r="B238" s="16" t="s">
+        <v>625</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="17" t="s">
-        <v>665</v>
+      <c r="B239" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="17" t="s">
-        <v>667</v>
+      <c r="B240" s="16" t="s">
+        <v>630</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>668</v>
+        <v>631</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="17" t="s">
-        <v>670</v>
+      <c r="B241" s="16" t="s">
+        <v>632</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E241" s="8"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="17" t="s">
-        <v>673</v>
+      <c r="B242" s="16" t="s">
+        <v>634</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="E242" s="8"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="17" t="s">
-        <v>675</v>
+      <c r="B243" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
       <c r="E243" s="8"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="17" t="s">
-        <v>677</v>
+      <c r="B244" s="16" t="s">
+        <v>638</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -6035,7 +6029,7 @@
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="14"/>
+      <c r="B246" s="13"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>

--- a/Example/NBP_GEO6.xlsx
+++ b/Example/NBP_GEO6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E300F-6B52-4803-858F-0B99B31B716C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374A75E8-46FA-45F7-85D4-6F4CBA963347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{34282A98-6A9A-4409-9434-E8B99E93568C}"/>
   </bookViews>
@@ -33,13 +33,7 @@
     <t>https://ec.europa.eu/eurostat/statistics-explained/index.php/Glossary:European_Economic_Area_(EEA)</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Nazwa kraju</t>
   </si>
   <si>
     <t>AD</t>
@@ -2060,6 +2054,12 @@
   </si>
   <si>
     <t>Republika Poludniowej Afryki</t>
+  </si>
+  <si>
+    <t>name_PL</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADDD7E8-93B1-4891-A805-5B974A060B9F}">
   <dimension ref="B1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
@@ -2642,29 +2642,29 @@
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="1"/>
@@ -2686,13 +2686,13 @@
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="1"/>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="1"/>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1"/>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
@@ -2756,13 +2756,13 @@
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="1"/>
@@ -2770,13 +2770,13 @@
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1"/>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="1"/>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="1"/>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="1"/>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="1"/>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="1"/>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="1"/>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="1"/>
@@ -2882,13 +2882,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="1"/>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="1"/>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="1"/>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="1"/>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="1"/>
@@ -2952,13 +2952,13 @@
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="1"/>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="1"/>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="1"/>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="1"/>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="1"/>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="1"/>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="1"/>
@@ -3064,13 +3064,13 @@
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="1"/>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="1"/>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="1"/>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="1"/>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="1"/>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="1"/>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="1"/>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="1"/>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="1"/>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="1"/>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="1"/>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="1"/>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="1"/>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="1"/>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="1"/>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="1"/>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="1"/>
@@ -3302,13 +3302,13 @@
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="1"/>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="1"/>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="1"/>
@@ -3344,13 +3344,13 @@
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="1"/>
@@ -3358,13 +3358,13 @@
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="1"/>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="1"/>
@@ -3386,29 +3386,29 @@
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="E59" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="1"/>
@@ -3416,29 +3416,29 @@
     </row>
     <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="1"/>
@@ -3446,13 +3446,13 @@
     </row>
     <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="1"/>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="64" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="1"/>
@@ -3474,29 +3474,29 @@
     </row>
     <row r="65" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="1"/>
@@ -3504,13 +3504,13 @@
     </row>
     <row r="67" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="1"/>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="68" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="1"/>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="69" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="1"/>
@@ -3546,29 +3546,29 @@
     </row>
     <row r="70" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="E70" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="1"/>
@@ -3576,29 +3576,29 @@
     </row>
     <row r="72" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="E72" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="1"/>
@@ -3606,13 +3606,13 @@
     </row>
     <row r="74" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="1"/>
@@ -3620,13 +3620,13 @@
     </row>
     <row r="75" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="1"/>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="76" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="1"/>
@@ -3648,29 +3648,29 @@
     </row>
     <row r="77" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="E77" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="1"/>
@@ -3678,29 +3678,29 @@
     </row>
     <row r="79" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="E79" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="1"/>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="81" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="1"/>
@@ -3722,13 +3722,13 @@
     </row>
     <row r="82" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="1"/>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="83" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="1"/>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="84" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="1"/>
@@ -3764,13 +3764,13 @@
     </row>
     <row r="85" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="1"/>
@@ -3778,13 +3778,13 @@
     </row>
     <row r="86" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="1"/>
@@ -3792,13 +3792,13 @@
     </row>
     <row r="87" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="1"/>
@@ -3806,13 +3806,13 @@
     </row>
     <row r="88" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="1"/>
@@ -3820,13 +3820,13 @@
     </row>
     <row r="89" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="1"/>
@@ -3834,13 +3834,13 @@
     </row>
     <row r="90" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="1"/>
@@ -3848,13 +3848,13 @@
     </row>
     <row r="91" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="1"/>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="92" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="1"/>
@@ -3876,13 +3876,13 @@
     </row>
     <row r="93" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="1"/>
@@ -3890,13 +3890,13 @@
     </row>
     <row r="94" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="1"/>
@@ -3904,13 +3904,13 @@
     </row>
     <row r="95" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="1"/>
@@ -3918,13 +3918,13 @@
     </row>
     <row r="96" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="1"/>
@@ -3932,13 +3932,13 @@
     </row>
     <row r="97" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="1"/>
@@ -3946,13 +3946,13 @@
     </row>
     <row r="98" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="1"/>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="99" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="1"/>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="100" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="1"/>
@@ -3988,13 +3988,13 @@
     </row>
     <row r="101" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="1"/>
@@ -4002,13 +4002,13 @@
     </row>
     <row r="102" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="1"/>
@@ -4016,13 +4016,13 @@
     </row>
     <row r="103" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="1"/>
@@ -4030,13 +4030,13 @@
     </row>
     <row r="104" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="1"/>
@@ -4044,45 +4044,45 @@
     </row>
     <row r="105" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="E105" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="1"/>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="108" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="1"/>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="109" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="1"/>
@@ -4118,29 +4118,29 @@
     </row>
     <row r="110" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="1"/>
@@ -4148,13 +4148,13 @@
     </row>
     <row r="112" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="1"/>
@@ -4162,13 +4162,13 @@
     </row>
     <row r="113" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="1"/>
@@ -4176,13 +4176,13 @@
     </row>
     <row r="114" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="1"/>
@@ -4190,13 +4190,13 @@
     </row>
     <row r="115" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="1"/>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="116" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="1"/>
@@ -4218,13 +4218,13 @@
     </row>
     <row r="117" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="1"/>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="118" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="1"/>
@@ -4246,13 +4246,13 @@
     </row>
     <row r="119" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="1"/>
@@ -4260,13 +4260,13 @@
     </row>
     <row r="120" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="1"/>
@@ -4274,13 +4274,13 @@
     </row>
     <row r="121" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="1"/>
@@ -4288,13 +4288,13 @@
     </row>
     <row r="122" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="1"/>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="123" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="1"/>
@@ -4316,13 +4316,13 @@
     </row>
     <row r="124" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="1"/>
@@ -4330,13 +4330,13 @@
     </row>
     <row r="125" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="1"/>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="126" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="1"/>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="127" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="1"/>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="128" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="1"/>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="129" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="1"/>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="130" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="1"/>
@@ -4414,13 +4414,13 @@
     </row>
     <row r="131" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="1"/>
@@ -4428,13 +4428,13 @@
     </row>
     <row r="132" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="1"/>
@@ -4442,13 +4442,13 @@
     </row>
     <row r="133" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="1"/>
@@ -4456,13 +4456,13 @@
     </row>
     <row r="134" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="1"/>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="135" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="1"/>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="136" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="1"/>
@@ -4498,29 +4498,29 @@
     </row>
     <row r="137" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="E137" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="1"/>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="139" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="1"/>
@@ -4542,13 +4542,13 @@
     </row>
     <row r="140" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="1"/>
@@ -4556,13 +4556,13 @@
     </row>
     <row r="141" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="1"/>
@@ -4570,13 +4570,13 @@
     </row>
     <row r="142" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="1"/>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="143" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="1"/>
@@ -4598,13 +4598,13 @@
     </row>
     <row r="144" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="1"/>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="145" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E145" s="8"/>
       <c r="F145" s="1"/>
@@ -4626,13 +4626,13 @@
     </row>
     <row r="146" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="1"/>
@@ -4640,13 +4640,13 @@
     </row>
     <row r="147" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="1"/>
@@ -4654,13 +4654,13 @@
     </row>
     <row r="148" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="1"/>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="149" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="1"/>
@@ -4682,13 +4682,13 @@
     </row>
     <row r="150" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="1"/>
@@ -4696,13 +4696,13 @@
     </row>
     <row r="151" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="1"/>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="152" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="1"/>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="153" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="1"/>
@@ -4738,13 +4738,13 @@
     </row>
     <row r="154" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="1"/>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="155" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="1"/>
@@ -4766,13 +4766,13 @@
     </row>
     <row r="156" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="1"/>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="157" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="1"/>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="158" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="1"/>
@@ -4808,13 +4808,13 @@
     </row>
     <row r="159" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="1"/>
@@ -4822,13 +4822,13 @@
     </row>
     <row r="160" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="1"/>
@@ -4836,13 +4836,13 @@
     </row>
     <row r="161" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="1"/>
@@ -4850,13 +4850,13 @@
     </row>
     <row r="162" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="1"/>
@@ -4864,45 +4864,45 @@
     </row>
     <row r="163" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="E163" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="E164" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="1"/>
@@ -4910,13 +4910,13 @@
     </row>
     <row r="166" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E166" s="8"/>
       <c r="F166" s="1"/>
@@ -4924,13 +4924,13 @@
     </row>
     <row r="167" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="1"/>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="168" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="1"/>
@@ -4952,29 +4952,29 @@
     </row>
     <row r="169" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="1"/>
@@ -4982,13 +4982,13 @@
     </row>
     <row r="171" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="1"/>
@@ -4996,13 +4996,13 @@
     </row>
     <row r="172" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="1"/>
@@ -5010,13 +5010,13 @@
     </row>
     <row r="173" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="1"/>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="174" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="1"/>
@@ -5038,13 +5038,13 @@
     </row>
     <row r="175" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="1"/>
@@ -5052,13 +5052,13 @@
     </row>
     <row r="176" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="1"/>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="177" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="1"/>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="178" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D178" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="1"/>
@@ -5094,29 +5094,29 @@
     </row>
     <row r="179" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D179" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="E179" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="1"/>
@@ -5124,13 +5124,13 @@
     </row>
     <row r="181" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="1"/>
@@ -5138,13 +5138,13 @@
     </row>
     <row r="182" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="1"/>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="183" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="1"/>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="184" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="1"/>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="185" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D185" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="1"/>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="186" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="1"/>
@@ -5208,13 +5208,13 @@
     </row>
     <row r="187" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="1"/>
@@ -5222,13 +5222,13 @@
     </row>
     <row r="188" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="1"/>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="189" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="1"/>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="190" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="1"/>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="191" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D191" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="1"/>
@@ -5278,13 +5278,13 @@
     </row>
     <row r="192" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D192" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="1"/>
@@ -5292,13 +5292,13 @@
     </row>
     <row r="193" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="1"/>
@@ -5306,13 +5306,13 @@
     </row>
     <row r="194" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E194" s="8"/>
       <c r="F194" s="1"/>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="195" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="1"/>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="196" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E196" s="8"/>
       <c r="F196" s="1"/>
@@ -5348,13 +5348,13 @@
     </row>
     <row r="197" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="1"/>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="198" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E198" s="8"/>
       <c r="F198" s="1"/>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="199" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E199" s="8"/>
       <c r="F199" s="1"/>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="200" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E200" s="8"/>
       <c r="F200" s="1"/>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="201" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="1"/>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="202" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="E202" s="8"/>
       <c r="F202" s="1"/>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="203" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="1"/>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="204" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="E204" s="8"/>
       <c r="F204" s="1"/>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="205" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D205" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="E205" s="8"/>
       <c r="F205" s="1"/>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="206" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D206" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="E206" s="8"/>
       <c r="F206" s="1"/>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="207" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D207" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="1"/>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="208" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="1"/>
@@ -5516,13 +5516,13 @@
     </row>
     <row r="209" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="1"/>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="210" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="1"/>
@@ -5544,13 +5544,13 @@
     </row>
     <row r="211" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="1"/>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="212" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="1"/>
@@ -5572,13 +5572,13 @@
     </row>
     <row r="213" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="1"/>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="214" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="1"/>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="215" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D215" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="1"/>
@@ -5614,13 +5614,13 @@
     </row>
     <row r="216" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="1"/>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="217" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="1"/>
@@ -5642,13 +5642,13 @@
     </row>
     <row r="218" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="1"/>
@@ -5656,13 +5656,13 @@
     </row>
     <row r="219" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="1"/>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="220" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="E220" s="8"/>
       <c r="F220" s="1"/>
@@ -5684,13 +5684,13 @@
     </row>
     <row r="221" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E221" s="8"/>
       <c r="F221" s="1"/>
@@ -5698,13 +5698,13 @@
     </row>
     <row r="222" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D222" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="E222" s="8"/>
       <c r="F222" s="1"/>
@@ -5712,29 +5712,29 @@
     </row>
     <row r="223" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="E223" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D224" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="E224" s="8"/>
       <c r="F224" s="1"/>
@@ -5742,13 +5742,13 @@
     </row>
     <row r="225" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E225" s="8"/>
       <c r="F225" s="1"/>
@@ -5756,13 +5756,13 @@
     </row>
     <row r="226" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E226" s="8"/>
       <c r="F226" s="1"/>
@@ -5770,29 +5770,29 @@
     </row>
     <row r="227" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E227" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>597</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="E228" s="8"/>
       <c r="F228" s="1"/>
@@ -5800,13 +5800,13 @@
     </row>
     <row r="229" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="1"/>
@@ -5814,13 +5814,13 @@
     </row>
     <row r="230" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D230" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="1"/>
@@ -5828,13 +5828,13 @@
     </row>
     <row r="231" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="1"/>
@@ -5842,13 +5842,13 @@
     </row>
     <row r="232" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D232" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="1"/>
@@ -5856,13 +5856,13 @@
     </row>
     <row r="233" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="1"/>
@@ -5870,13 +5870,13 @@
     </row>
     <row r="234" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E234" s="8"/>
       <c r="F234" s="1"/>
@@ -5884,13 +5884,13 @@
     </row>
     <row r="235" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D235" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="1"/>
@@ -5898,13 +5898,13 @@
     </row>
     <row r="236" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="1"/>
@@ -5912,13 +5912,13 @@
     </row>
     <row r="237" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D237" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -5926,13 +5926,13 @@
     </row>
     <row r="238" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D238" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="1"/>
@@ -5940,13 +5940,13 @@
     </row>
     <row r="239" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E239" s="8"/>
       <c r="F239" s="1"/>
@@ -5954,13 +5954,13 @@
     </row>
     <row r="240" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E240" s="8"/>
       <c r="F240" s="1"/>
@@ -5968,13 +5968,13 @@
     </row>
     <row r="241" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E241" s="8"/>
       <c r="F241" s="1"/>
@@ -5982,13 +5982,13 @@
     </row>
     <row r="242" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="16" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E242" s="8"/>
       <c r="F242" s="1"/>
@@ -5996,13 +5996,13 @@
     </row>
     <row r="243" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E243" s="8"/>
       <c r="F243" s="1"/>
@@ -6010,16 +6010,16 @@
     </row>
     <row r="244" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E244" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E244" s="8" t="s">
-        <v>640</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
